--- a/all_DE/Michael Roes.xlsx
+++ b/all_DE/Michael Roes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Michael Roes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\all_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E728F8-1896-4307-884D-4E05413264E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD927D2-B9ED-4558-94C1-3756B3DBAAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>title</t>
   </si>
@@ -178,9 +178,6 @@
 Immer ist Westfalen/Europa der Ausgangspunkt und immer führte der Weg zurück in die Heimat, die, auf der Grundlage neu gesammelter Erfahrungen, sozialhistorisch und mentalitätsgeschichtlich neu, bewusster wahrgenommen, neu „gelesen“ wird.
 Eine eigene Abteilung bilden die Reisen des aktuellen Droste-Preisträgers Michael Roes, die multimedial im Gartenhaus zu erleben sind.
 Darüber hinaus sind weitere Kurzvideos geplant, die sich einzelnen Autorinnen und Autoren der Gegenwart und deren Reisetexten widmen und im Verlauf der Ausstellungszeit veröffentlicht werden.</t>
-  </si>
-  <si>
-    <t>Flags</t>
   </si>
 </sst>
 </file>
@@ -223,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,32 +243,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -553,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +547,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,11 +572,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -618,11 +598,8 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -647,11 +624,8 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -676,11 +650,8 @@
       <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -705,11 +676,8 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -734,11 +702,8 @@
       <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -765,9 +730,6 @@
       </c>
       <c r="I7" t="s">
         <v>43</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
